--- a/20241216_네이버가격비교_REF/Data/Config.xlsx
+++ b/20241216_네이버가격비교_REF/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\이력서작성용\20241216_3차종합평가_신정현_수정\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\6_이력서작성용\20241216_네이버가격비교_REF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA90D8-EB35-488B-8E8C-9754D75791A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E40F5F-435A-44CC-ADE6-C5634532EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16800" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -472,6 +472,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -789,7 +790,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -870,7 +871,7 @@
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
